--- a/data/health/indicator_5 sugar_consumption.xlsx
+++ b/data/health/indicator_5 sugar_consumption.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -575,6 +575,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -596,7 +597,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -877,7 +877,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H30"/>
+      <selection activeCell="B1" sqref="B1:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -906,10 +906,10 @@
       <c r="F1" s="15">
         <v>84.93</v>
       </c>
-      <c r="G1" s="60">
+      <c r="G1" s="53">
         <v>0</v>
       </c>
-      <c r="H1" s="60">
+      <c r="H1" s="53">
         <v>0</v>
       </c>
     </row>
@@ -932,10 +932,10 @@
       <c r="F2" s="15">
         <v>128.77000000000001</v>
       </c>
-      <c r="G2" s="60">
+      <c r="G2" s="53">
         <v>0</v>
       </c>
-      <c r="H2" s="60">
+      <c r="H2" s="53">
         <v>0</v>
       </c>
     </row>
@@ -954,10 +954,10 @@
       <c r="F3" s="15">
         <v>90.41</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="53">
         <v>0</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="53">
         <v>0</v>
       </c>
     </row>
@@ -980,62 +980,62 @@
       <c r="F4" s="15">
         <v>153.43</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="53">
         <v>0</v>
       </c>
-      <c r="H4" s="60">
+      <c r="H4" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" s="15">
-        <v>16.440000000000001</v>
+        <v>142.47</v>
       </c>
       <c r="C5" s="15">
-        <v>19.18</v>
+        <v>147.94999999999999</v>
       </c>
       <c r="D5" s="15">
-        <v>16.440000000000001</v>
+        <v>136.99</v>
       </c>
       <c r="E5" s="15">
-        <v>19.18</v>
+        <v>136.99</v>
       </c>
       <c r="F5" s="15">
-        <v>21.92</v>
-      </c>
-      <c r="G5" s="60">
+        <v>134.25</v>
+      </c>
+      <c r="G5" s="53">
         <v>0</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="15">
-        <v>142.47</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="C6" s="15">
-        <v>147.94999999999999</v>
+        <v>19.18</v>
       </c>
       <c r="D6" s="15">
-        <v>136.99</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="E6" s="15">
-        <v>136.99</v>
+        <v>19.18</v>
       </c>
       <c r="F6" s="15">
-        <v>134.25</v>
-      </c>
-      <c r="G6" s="60">
+        <v>21.92</v>
+      </c>
+      <c r="G6" s="53">
         <v>0</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="53">
         <v>0</v>
       </c>
     </row>
@@ -1054,10 +1054,10 @@
       <c r="F7" s="15">
         <v>167.12</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="53">
         <v>0</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="53">
         <v>0</v>
       </c>
     </row>
@@ -1080,10 +1080,10 @@
       <c r="F8" s="15">
         <v>123.29</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="53">
         <v>0</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="53">
         <v>0</v>
       </c>
     </row>
@@ -1096,10 +1096,10 @@
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="60">
+      <c r="G9" s="53">
         <v>0</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="53">
         <v>0</v>
       </c>
     </row>
@@ -1122,10 +1122,10 @@
       <c r="F10" s="15">
         <v>65.75</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="53">
         <v>0</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="53">
         <v>0</v>
       </c>
     </row>
@@ -1148,10 +1148,10 @@
       <c r="F11" s="15">
         <v>76.709999999999994</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="53">
         <v>0</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="53">
         <v>0</v>
       </c>
     </row>
@@ -1170,308 +1170,308 @@
       <c r="F12" s="15">
         <v>71.23</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="53">
         <v>0</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="15">
-        <v>54.8</v>
+        <v>90.41</v>
       </c>
       <c r="C13" s="15">
-        <v>84.93</v>
+        <v>104.11</v>
       </c>
       <c r="D13" s="15">
+        <v>90.41</v>
+      </c>
+      <c r="E13" s="15">
         <v>82.19</v>
       </c>
-      <c r="E13" s="15">
-        <v>87.67</v>
-      </c>
       <c r="F13" s="15">
-        <v>98.63</v>
-      </c>
-      <c r="G13" s="60">
+        <v>93.15</v>
+      </c>
+      <c r="G13" s="53">
         <v>0</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="15">
-        <v>90.41</v>
+        <v>95.89</v>
       </c>
       <c r="C14" s="15">
-        <v>104.11</v>
+        <v>98.63</v>
       </c>
       <c r="D14" s="15">
-        <v>90.41</v>
+        <v>120.55</v>
       </c>
       <c r="E14" s="15">
-        <v>82.19</v>
+        <v>115.07</v>
       </c>
       <c r="F14" s="15">
-        <v>93.15</v>
-      </c>
-      <c r="G14" s="60">
+        <v>112.33</v>
+      </c>
+      <c r="G14" s="53">
         <v>0</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="15">
-        <v>95.89</v>
+        <v>128.77000000000001</v>
       </c>
       <c r="C15" s="15">
-        <v>98.63</v>
+        <v>134.25</v>
       </c>
       <c r="D15" s="15">
-        <v>120.55</v>
+        <v>136.99</v>
       </c>
       <c r="E15" s="15">
-        <v>115.07</v>
+        <v>131.51</v>
       </c>
       <c r="F15" s="15">
-        <v>112.33</v>
-      </c>
-      <c r="G15" s="60">
+        <v>131.51</v>
+      </c>
+      <c r="G15" s="53">
         <v>0</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="15">
-        <v>128.77000000000001</v>
+        <v>98.63</v>
       </c>
       <c r="C16" s="15">
+        <v>142.47</v>
+      </c>
+      <c r="D16" s="15">
         <v>134.25</v>
       </c>
-      <c r="D16" s="15">
-        <v>136.99</v>
-      </c>
       <c r="E16" s="15">
-        <v>131.51</v>
+        <v>123.29</v>
       </c>
       <c r="F16" s="15">
-        <v>131.51</v>
-      </c>
-      <c r="G16" s="60">
+        <v>142.47</v>
+      </c>
+      <c r="G16" s="53">
         <v>0</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="15">
-        <v>98.63</v>
+        <v>128.77000000000001</v>
       </c>
       <c r="C17" s="15">
         <v>142.47</v>
       </c>
       <c r="D17" s="15">
-        <v>134.25</v>
+        <v>145.21</v>
       </c>
       <c r="E17" s="15">
-        <v>123.29</v>
+        <v>158.9</v>
       </c>
       <c r="F17" s="15">
-        <v>142.47</v>
-      </c>
-      <c r="G17" s="60">
+        <v>164.38</v>
+      </c>
+      <c r="G17" s="53">
         <v>0</v>
       </c>
-      <c r="H17" s="60">
+      <c r="H17" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="15">
-        <v>128.77000000000001</v>
+        <v>82.19</v>
       </c>
       <c r="C18" s="15">
-        <v>142.47</v>
+        <v>82.19</v>
       </c>
       <c r="D18" s="15">
-        <v>145.21</v>
+        <v>68.489999999999995</v>
       </c>
       <c r="E18" s="15">
-        <v>158.9</v>
+        <v>71.23</v>
       </c>
       <c r="F18" s="15">
-        <v>164.38</v>
-      </c>
-      <c r="G18" s="60">
+        <v>73.97</v>
+      </c>
+      <c r="G18" s="53">
         <v>0</v>
       </c>
-      <c r="H18" s="60">
+      <c r="H18" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" s="15">
-        <v>82.19</v>
+        <v>65.75</v>
       </c>
       <c r="C19" s="15">
-        <v>82.19</v>
+        <v>71.23</v>
       </c>
       <c r="D19" s="15">
-        <v>68.489999999999995</v>
+        <v>79.45</v>
       </c>
       <c r="E19" s="15">
-        <v>71.23</v>
+        <v>79.45</v>
       </c>
       <c r="F19" s="15">
-        <v>73.97</v>
-      </c>
-      <c r="G19" s="60">
+        <v>76.709999999999994</v>
+      </c>
+      <c r="G19" s="53">
         <v>0</v>
       </c>
-      <c r="H19" s="60">
+      <c r="H19" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="15">
-        <v>65.75</v>
+        <v>134.25</v>
       </c>
       <c r="C20" s="15">
-        <v>71.23</v>
+        <v>139.72999999999999</v>
       </c>
       <c r="D20" s="15">
-        <v>79.45</v>
+        <v>115.07</v>
       </c>
       <c r="E20" s="15">
-        <v>79.45</v>
+        <v>117.81</v>
       </c>
       <c r="F20" s="15">
-        <v>76.709999999999994</v>
-      </c>
-      <c r="G20" s="60">
+        <v>123.29</v>
+      </c>
+      <c r="G20" s="53">
         <v>0</v>
       </c>
-      <c r="H20" s="60">
+      <c r="H20" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" s="15">
-        <v>134.25</v>
+        <v>79.45</v>
       </c>
       <c r="C21" s="15">
-        <v>139.72999999999999</v>
+        <v>68.489999999999995</v>
       </c>
       <c r="D21" s="15">
-        <v>115.07</v>
+        <v>73.97</v>
       </c>
       <c r="E21" s="15">
-        <v>117.81</v>
+        <v>60.27</v>
       </c>
       <c r="F21" s="15">
-        <v>123.29</v>
-      </c>
-      <c r="G21" s="60">
+        <v>71.23</v>
+      </c>
+      <c r="G21" s="53">
         <v>0</v>
       </c>
-      <c r="H21" s="60">
+      <c r="H21" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="15">
-        <v>79.45</v>
-      </c>
-      <c r="C22" s="15">
-        <v>68.489999999999995</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>73.97</v>
+        <v>95.89</v>
       </c>
       <c r="E22" s="15">
-        <v>60.27</v>
+        <v>109.59</v>
       </c>
       <c r="F22" s="15">
-        <v>71.23</v>
-      </c>
-      <c r="G22" s="60">
+        <v>120.55</v>
+      </c>
+      <c r="G22" s="53">
         <v>0</v>
       </c>
-      <c r="H22" s="60">
+      <c r="H22" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="15">
-        <v>95.89</v>
-      </c>
-      <c r="E23" s="15">
-        <v>109.59</v>
-      </c>
-      <c r="F23" s="15">
-        <v>120.55</v>
-      </c>
-      <c r="G23" s="60">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="53">
         <v>0</v>
       </c>
-      <c r="H23" s="60">
+      <c r="H23" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="60">
+        <v>54</v>
+      </c>
+      <c r="B24" s="15">
+        <v>54.8</v>
+      </c>
+      <c r="C24" s="15">
+        <v>84.93</v>
+      </c>
+      <c r="D24" s="15">
+        <v>82.19</v>
+      </c>
+      <c r="E24" s="15">
+        <v>87.67</v>
+      </c>
+      <c r="F24" s="15">
+        <v>98.63</v>
+      </c>
+      <c r="G24" s="53">
         <v>0</v>
       </c>
-      <c r="H24" s="60">
+      <c r="H24" s="53">
         <v>0</v>
       </c>
     </row>
@@ -1494,10 +1494,10 @@
       <c r="F25" s="15">
         <v>93.15</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G25" s="53">
         <v>0</v>
       </c>
-      <c r="H25" s="60">
+      <c r="H25" s="53">
         <v>0</v>
       </c>
     </row>
@@ -1520,10 +1520,10 @@
       <c r="F26" s="15">
         <v>128.77000000000001</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="53">
         <v>0</v>
       </c>
-      <c r="H26" s="60">
+      <c r="H26" s="53">
         <v>0</v>
       </c>
     </row>
@@ -1536,10 +1536,10 @@
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="60">
+      <c r="G27" s="53">
         <v>0</v>
       </c>
-      <c r="H27" s="60">
+      <c r="H27" s="53">
         <v>0</v>
       </c>
     </row>
@@ -1562,10 +1562,10 @@
       <c r="F28" s="15">
         <v>87.67</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="53">
         <v>0</v>
       </c>
-      <c r="H28" s="60">
+      <c r="H28" s="53">
         <v>0</v>
       </c>
     </row>
@@ -1588,10 +1588,10 @@
       <c r="F29" s="15">
         <v>191.78</v>
       </c>
-      <c r="G29" s="60">
+      <c r="G29" s="53">
         <v>0</v>
       </c>
-      <c r="H29" s="60">
+      <c r="H29" s="53">
         <v>0</v>
       </c>
     </row>
@@ -1614,10 +1614,10 @@
       <c r="F30" s="15">
         <v>104.11</v>
       </c>
-      <c r="G30" s="60">
+      <c r="G30" s="53">
         <v>0</v>
       </c>
-      <c r="H30" s="60">
+      <c r="H30" s="53">
         <v>0</v>
       </c>
     </row>
@@ -1647,11 +1647,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="53" t="str">
+      <c r="B1" s="54" t="str">
         <f>C4</f>
         <v>Sugar per person (g per day)</v>
       </c>
-      <c r="C1" s="54"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="4"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4313,12 +4313,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="25"/>
       <c r="F1" s="6"/>
       <c r="G1" s="1"/>
@@ -4473,10 +4473,10 @@
       <c r="A1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="57"/>
+      <c r="C1" s="58"/>
       <c r="D1" s="30"/>
       <c r="E1" s="33"/>
       <c r="F1" s="35"/>
@@ -4497,10 +4497,10 @@
     </row>
     <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="37"/>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="30"/>
       <c r="E3" s="33"/>
       <c r="F3" s="35"/>
